--- a/fakedb/Publications example v7.0 29Nov23.xlsx
+++ b/fakedb/Publications example v7.0 29Nov23.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://netorg15599125.sharepoint.com/sites/FlockDigital406/Shared Documents/General/Clients/Camino/Projects/Web interface for python script/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\15.Flask\1. flock_digital\fakedb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{AEC8BFAE-1C03-5443-A3D0-CF0CEFDC472B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8966203C-446C-4537-BC14-0F17B3B2525F}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-24030" yWindow="5115" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24030" yWindow="5115" windowWidth="17280" windowHeight="8880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -79,7 +78,466 @@
     <t>Nanaa, A</t>
   </si>
   <si>
-    <t xml:space="preserve">![](https://ash.silverchair-
+    <t>https://doi.org/10.1182/blood-2021-144400</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Real-world study</t>
+  </si>
+  <si>
+    <t>E1a</t>
+  </si>
+  <si>
+    <t>2023-10-09 12:00:00</t>
+  </si>
+  <si>
+    <t>Phase 1</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>Pre-clinical/Research article</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>Phase 2</t>
+  </si>
+  <si>
+    <t>Case reports</t>
+  </si>
+  <si>
+    <t>I2</t>
+  </si>
+  <si>
+    <t>DiNardo, C</t>
+  </si>
+  <si>
+    <t>I3</t>
+  </si>
+  <si>
+    <t>Clinical study – unknown</t>
+  </si>
+  <si>
+    <t>Review</t>
+  </si>
+  <si>
+    <t>eha</t>
+  </si>
+  <si>
+    <t>Senapati J</t>
+  </si>
+  <si>
+    <t>06-2023</t>
+  </si>
+  <si>
+    <t>386317</t>
+  </si>
+  <si>
+    <t>SAFETY AND EFFICACY OF VENETOCLAX PLUS “7+3” CHEMOTHERAPY IN NEWLY DIAGNOSED AML</t>
+  </si>
+  <si>
+    <t>Mantzaris I</t>
+  </si>
+  <si>
+    <t>Abstract: P488
+Title: SAFETY AND EFFICACY OF VENETOCLAX PLUS “7+3” CHEMOTHERAPY IN
+NEWLY DIAGNOSED AML
+Abstract Type: Poster Presentation
+Session Title: Acute myeloid leukemia - Clinical
+Background:
+Approximately 70% of patients (pts) with acute myeloid leukemia (AML) treated with the “7+3” regimen achieve
+complete remission (CR), with 30-50% of those attaining measurable residual disease (MRD) negative state by
+multiparameter flow cytometry (MFC). However, despite initial responses, the majority of pts eventually relapse.
+Venetoclax (Ven) added to intensive chemotherapy (IC) facilitates apoptosis of leukemic stem cells (LSC), and may
+result in deeper, more durable remissions. Moreover, IC induces MCL-1 downregulation and may overcome Ven
+resistance. We present initial results from an ongoing phase 1b study evaluating the safety and tolerability of
+different Ven doses combined with daunorubicin (Dauno)+ cytarabine (AraC) followed by high-dose cytarabine
+(HiDAC) chemotherapy in pts with newly diagnosed AML (NCT05342584).
+Aims:
+The primary objective of this study is to determine the optimal dose of Ven in combination with Dauno &amp; AraC
+and HiDAC chemotherapy. Secondary objectives are response per 2022 ELN, survival (OS), event-free survival
+(EFS) and duration of response (DoR). A key exploratory objective is to assess rates of LSC eradication by means of
+MFC and single cell DNA (Tapestri, Mission Bio) and RNA sequencing (“high-resolution MRD assay”).
+Methods:
+Eligible pts must have a new diagnosis of AML, be 18-75 yrs of age and deemed fit for intensive chemotherapy. In
+a 3+3 design, escalating total Ven doses (400 mg D1-8 or 11 or 14, including 2-day ramp-up) are combined with
+AraC 100mg/m2 (D2-8) and 2 doses of Dauno (60 and 90mg/m2, D2-4) in pts &lt; 60yrs or Dauno 60mg/m2 (D2-
+4) alone in pts ≥60yrs. Overflow of additional 3 pts is allowed in lower-dose cohorts. During consolidation, Ven
+dose is escalated (200 -&gt; 400mg x7days) in a similar 3+3 design in combination with age-adjusted HiDAC
+(1.5g/m2 in &lt;60yrs and 1g/m2 in ≥60yrs, every 12hrs on days 1,3,5). In the expansion phase, additional 12 pts in
+each age group (&lt;60 and ≥60yrs) will be treated at the dose determined during dose escalation. Dose-limiting
+toxicity (DLT) is defined as any ≥grade 3 non-heme toxicity not attributed to chemotherapy alone and/or failure to
+achieve ANC ≥ 500/mL and/or PLT≥ 50,000/mL by day 42 in pts without residual AML. A marrow exam, including
+an assessment of MRD by MFC with a sensitivity of 0.02%, is performed at the time of count recovery or by day
+42.
+Results:
+Seventeen AML pts enrolled and 14 completed the induction phase to date, 3 are actively treated. Forty-one
+percent are females and 52% ethnic minorities. Six pts &lt;60yrs of age were treated with Ven x 8d, 3 in Dauno60
+and 3 in Dauno90 cohorts. From the 8 pts ≥60yo, 5 were treated with Ven x 8d and 3 with Ven x 11d plus
+Dauno60. No DLTs were observed. All except one pt (13/14, 93%) achieved a complete remission (CR) with single
+induction. Median time to ANC≥0.5K/uL and PLT≥50K/uL was 26 and 28 days, respectively. Of those in CR, all
+except one pt were MFC-MRD negative (12/14, 86%). Among 6/8 patients with available MRD PCR testing, 4
+achieved molecular MRD-negative and 2 low-level molecular MRD CRs. With a median time on follow-up of 4.7
+months, 11 of 14 (78.6%) patients are alive with no evidence of relapse. Table 1 summarizes patient
+characteristics, toxicity and outcomes.
+Summary/Conclusion:
+Ven 400mg in combination with "7+3" induction chemotherapy appears safe and highly effective in achievingdeep remissions. Enrollment continues in the Dauno60 + Ven x11d and 14d cohorts. Updated results, as well as
+data on EFS, OS, DoR and rates of LSC elimination post-induction will be presented at the meeting.
+Keywords:
+ Acute myeloid leukemia, AML</t>
+  </si>
+  <si>
+    <t>https://library.ehaweb.org/eha/2023/eha2023-congress/386317/ioannis.mantzaris.safety.and.efficacy.of.venetoclax.plus.72B3.chemotherapy.in.html</t>
+  </si>
+  <si>
+    <t>386329</t>
+  </si>
+  <si>
+    <t>SUPERIOR OUTCOMES AFTER ALLOGENEIC STEM CELL TRANSPLANTATION AMONG PATIENTS ≥ 60 YEARS TREATED WITH CLADRIBINE, LOW DOSE CYTARABINE PLUS VENETOCLAX FOR NEWLY DIAGNOSED ACUTE MYELOID LEUKEMIA</t>
+  </si>
+  <si>
+    <t>Abstract: P500
+Title: SUPERIOR OUTCOMES AFTER ALLOGENEIC STEM CELL TRANSPLANTATION
+AMONG PATIENTS ≥ 60 YEARS TREATED WITH CLADRIBINE, LOW DOSE
+CYTARABINE PLUS VENETOCLAX FOR NEWLY DIAGNOSED ACUTE MYELOID
+LEUKEMIA
+Abstract Type: Poster Presentation
+Session Title: Acute myeloid leukemia - Clinical
+Background:
+A low intensity regimen consisting of Cladribine (CLAD), Low dose cytarabine (LDAC) and Venetoclax (VEN)
+alternating with Azacitidine (AZA) and VEN has shown promising outcomes in older patients (pts) with acute
+myeloid leukemia (AML) (
+Kadia et al
+, JCO Nov 2022). Improved disease control and preserved performance status
+achieved with CLAD/LDAC/VEN treatment, may translate into superior post-stem cell transplantation (SCT)
+outcomes.
+Aims:
+We aimed to study the outcomes of older pts with AML who underwent SCT post CLAD-LDAC-VEN therapy and
+compare to those who underwent SCT after hypomethylating agent (HMA)-VEN based or intensive (INT) therapy.
+Methods:
+Pts ≥ 60 yrs of age treated on the phase II study of CLAD-LDAC-VEN (NCT03586609) who underwent SCT in 1st
+remission (CR1) were compared to a retrospective cohort of pts ≥ 60 yrs treated with HMA-VEN based or INT
+therapy who underwent SCT in CR1 between 2013-2022. Relapse free survival (RFS) was from response to
+relapse/death and overall survival (OS) from start of therapy to death. We performed competing event analysis to
+study the cumulative incidence of relapse (CIR) and non-relapse mortality (NRM) for the patients on these 3
+treatment arms.
+Results:
+35 pts treated with CLAD-LDAC-VEN were compared to 40 pts treated with HMA-VEN &amp; 42 pts with INT therapy
+for remission induction prior to SCT at our center (Figure 1). The median age of pts in the low-intensity arms were
+similar (68 yrs), but lower on the INT arm (62 yrs). More pts post-INT therapy received a myeloablative
+conditioning (MAC). At a median follow up of 17+ mos for CLAD-LDAC-VEN arm, 30 mos for HMA arm, and 59
+mos for INT arm the median RFS (NR vs. 20 mos vs. 50 mos respectively, p &lt;0.01) and OS (NR vs. 32 m vs. 58 m
+respectively, p &lt; 0.01) was superior for the CLAD-LDAC-VEN arm. 3-yr cumulative incidence of relapse &amp; NRM (as
+competing events) were both significantly lower with CLAD-LDAC-VEN (4% and 7%) compared to HMA-VEN (41%
+and 27%) or INT therapy (17% and 23%) (Figure 1). The rates of any-grade acute graft versus host disease (GVHD)
+was slightly lower in the CLAD-LDAC-VEN arm (34%) compared to HMA (54%) and INT arms (67%); 31/35 pts
+(88%) in the CLAD-LDAC-VEN arm had received post-transplant cyclophosphamide GVHD prophylaxis compared
+to 35/40 (87%) pts in HMA arm (p- 0.99) and 25/42 (60%) pts in the INT arm (p- 0.005).
+Summary/Conclusion:
+Older pts with AML proceeding to SCT after CLAD-LDAC-VEN therapy had significantly improved survival,
+characterized by significantly lower rates of NRM and relapse compared to HMA-VEN or INT therapies. Larger
+studies and longer follow up is needed to further confirm its benefit.Keywords:
+ Cladribine, Acute myeloid leukemia, Venetoclax, Allogeneic hematopoietic stem cell transplant</t>
+  </si>
+  <si>
+    <t>https://library.ehaweb.org/eha/2023/eha2023-congress/386329/jayastu.senapati.superior.outcomes.after.allogeneic.stem.cell.transplantation.html</t>
+  </si>
+  <si>
+    <t>386331</t>
+  </si>
+  <si>
+    <t>PHASE II STUDY ON VENETOCLAX PLUS DECITABINE FOR ELDERLY (≥60 &lt;75YEARS) PATIENTS WITH NEWLY DIAGNOSED HIGH-INTERMEDIATE RISK AML ELEGIBLE FOR ALLO-SCT : MIDTERM UPDATE OF VEN-DEC GITMO STUDY</t>
+  </si>
+  <si>
+    <t>Russo D</t>
+  </si>
+  <si>
+    <t>Abstract: P502
+Title: PHASE II STUDY ON VENETOCLAX PLUS DECITABINE FOR ELDERLY (≥60
+&lt;75YEARS) PATIENTS WITH NEWLY DIAGNOSED HIGH-INTERMEDIATE RISK AML
+ELEGIBLE FOR ALLO-SCT : MIDTERM UPDATE OF VEN-DEC GITMO STUDY
+Abstract Type: Poster Presentation
+Session Title: Acute myeloid leukemia - Clinical
+Background:
+Allogeneic stem cell transplantation (allo-SCT) represents the preferred consolidation treatment for patients
+affected by intermediate/high risk ELN acute myeloid leukemia. Unfortunately, due comorbidities and unfitness to
+intensive chemotherapy only a minority of elderly patients (aged ≥60) may benefit of such a curative approach.
+Aims:
+VEN-DEC GITMO trial is a no profit, prospective, phase II, multicentre, non-randomised, uncontrolled, single group
+assignment, open label study to evaluate the safety and efficacy of the “chemo-free” combination Venetoclax plus
+Decitabine (VEN-DEC) as “bridge” to allo-SCT in elderly (≥ 60 - &lt; 75 years) AML patients.
+Methods:
+Venetoclax and Decitabine were administered for 2 cycles and then response was evaluated. In case of
+CR/CRi/MLFS (hereinafter defined as CR) according to ELN criteria, patients had to undergo allo-SCT within 2
+months. In case of NR or PR after the 2nd Cycle VEN-DEC, 2 additional cycles had to be administered and patients
+achieving CR had to undergo allo-SCT within 2 months. Patients with NR or PR went off the study and could be
+treated according to single center policy.
+The study was designed as a Simon optimal two-Stage Phase II clinical trial, including a planned futility check.
+Considering an overall 12% of drop-out rate, a total of 100 patients had to be enrolled. Primary objective is the
+proportion of elderly AML patients who receive allo-SCT in CR with the “chemo-free” combination VEN-DEC.
+According to the statistical plan, primary endpoint was met in case of more than 15% of patients in CR submitted
+to allo-SCT. Figure 1 illustrates the study design.
+Results:
+The study started at July 2021 and, as expected, 100 patients were enrolled at December 2022 by 25 Italian Gitmo
+Transplant Centers. Data cut-off is February 18
+th
+, 2023.
+Screening failure was registered in 6 pts (6%), all the remaining 94 pts started the 1
+st
+ cycle of treatment, 75 pts
+completed the 2
+nd
+ cycle of VEN-DEC and were evaluable for treatment response.
+Overall, CR was recorded in 49 patients after 2 cycles (65.3%), partial or non-response in 26 cases. Four out of 26
+(15%) PR/NR patients obtained a CR after 2 additional cycles of therapy. A total of 37 and 12 patients received a
+third and/or a fourth cycle of treatment after reaching a CR after cycle 2 while waiting for transplant, due to
+logistical issues. According to study protocol, first cycle was administered inpatient in all patients. Cycle 2 was
+given outpatient in 74% of cases. Median time to response was 67 days (range, 49-175). A total of 8/94 (9%)
+patients have died before transplant (in 3 cases for disease progression).
+At data cut-off, 41/94 (43.6%) patients have been successfully undergone allo-SCT and 12 patients are awaiting
+for transplant.
+Summary/Conclusion:
+Even if the study is still ongoing, the primary endpoint has already been met. Final analysis is planned at end ofMay 2023 before EHA meeting. In that report, comprehensive evaluation of efficacy and toxicity will be reported.
+Acknowledgement
+Monica Bonzi, Sr. Clinical Lead - IQVIA RDS, Italy.
+Keywords:
+ Venetoclax, Acute leukemia, Induction chemotherapy, decitabine</t>
+  </si>
+  <si>
+    <t>https://library.ehaweb.org/eha/2023/eha2023-congress/386331/domenico.russo.phase.ii.study.on.venetoclax.plus.decitabine.for.elderly.2860.html</t>
+  </si>
+  <si>
+    <t>386336</t>
+  </si>
+  <si>
+    <t>SALVAGE THERAPY WITH VENETOCLAX IN COMBINATION WITH AZACITIDINE, HOMOHARRINGTONINE AND CYTARABINE IN PATIENTS WITH RELAPSED/REFRACTORY ACUTE MYELOID LEUKEMIA</t>
+  </si>
+  <si>
+    <t>Xingli Z</t>
+  </si>
+  <si>
+    <t>Abstract: P507
+Title: SALVAGE THERAPY WITH VENETOCLAX IN COMBINATION WITH
+AZACITIDINE, HOMOHARRINGTONINE AND CYTARABINE IN PATIENTS WITH
+RELAPSED/REFRACTORY ACUTE MYELOID LEUKEMIA
+Abstract Type: Poster Presentation
+Session Title: Acute myeloid leukemia - Clinical
+Background:
+In recent years, the efficacy of acute myeloid leukemia (AML) has been improved, but the outcome of
+relapsed/refractory (R/R) AML patients is still poor. Traditional chemotherapy is not effective for these patients
+with 
+complete remission
+(CR) 40-60%. Previous reports have shown that the combined application of some small-
+molecule targeted drugs (gilteritinib, enasidenib, ivosidenib, venetoclax, etc) could improve the therapeutic effect.
+Venetoclax (Ven), an oral Bcl-2 inhibitor, combined with azacitidine (AZA), decitabine and cytarabine (Ara-c) are
+effective in the treatment of newly diagnosed AML patients who are not eligible for intense chemotherapy, and the
+above regimen has also achieved good efficacy in the R/R AML with overall response rate (ORR) 21% to 75% and
+a median overall survival (OS) of 3-7.8 month.
+Previous research has shown that Homoharringtonine (HHT) and Ven can play a synergistic role in promoting
+tumor cell apoptosis through various pathways, and effectively cover the Ven resistance pathway. So that, Ven
+combined with AZA, HHT and Ara-c may improve the response rate in patients with R/R AML.
+Aims:
+Herein, we reported the data of 32 patients with R/R AML who were administered Ven+AZA+HHT+Ara-c as
+salvage therapy. The purpose of this study was to evaluate the efficacy and safety of this salvage regimen.
+Methods:
+Between Oct 2020 and Jan 2023, 32 patients with R/R AML were treated with this salvage regimen at 5 hospitals
+in China.
+The salvage therapy involved Ven (200mg/d, days 1-11, with dose adjustment in patients who also received azole
+antifungals), AZA (100 mg/d, days 2-8), HHT (2mg/m2/d, days 3-7) and Ara-c (100mg/d, days 3-9). Patients with
+FLT3-ITD mutations, allowing added sorafenib 600mg-800mg on days 4-10. The primary objective was ORR
+(including complete response (CR) + complete response without haematological recovery (CRi) + partial response
+(PR)), Secondary objectives were bone marrow minimal residual disease (MRD) by flow cytometry after one cycle
+of salvage treatment, OS and safety.
+Results:
+32 patients were enrolled from Oct 2020 to Jan 2023. 62.5% 
+（
+20/32
+）
+ patients were men. The median age was
+50
+（
+24-65
+）
+years old. Median number of prior lines of therapy was 1 (1-8), 5 patients (15.6%) who had undergone
+prior therapy with venetoclax.
+The ORR after one cycle salvage treatment was 68.8% with composite complete response rate (CR+CRi) 65.7%.
+63.2% (12/19) patients who reached CR/CRi with undetectable MRD by flow cytometry. The ORR of patients who
+had previously received Ven was 80% (4/5). Untill Feb 2023, the estimated 1-years OS was 57.8%.
+Grade 3 or 4 anaemia, neutropenia and thrombocytopenia were the most common haematological adverse events
+during the salvage treatment and were presented in all enrolled patients. The most common non-hematologic
+adverse events were febrile neutropenia. 1 patient died during the therapy. Conclusion:
+Ven combined with AZA, HHT and Ara-c is a highly effective and safe salvage therapy for patients with R/R AML.
+Table 1. Patients Demographic and Baseline Characteristics, N=32
+Characteristic
+No. of Patients (%)
+or Median [Range]
+Gender
+Male
+20 (62.5%)
+Female
+12 (37.5%)
+Median age, years (range)
+50 (24-65)
+ECOG performance status
+0-1
+27 (84.4%)
+≥2
+5 (15.6%)
+ELN 2022 risk group at the initial diagnosis
+Favorable
+5 (15.6%)
+Intermediate
+14 (43.7%)
+Adverse
+10 (31.3%)
+Not Evaluable
+3 (9.4%)
+ELN 2017 risk group at the initial diagnosis
+Favorable
+6 (18.8%)
+Intermediate
+15 (46.9%)
+Adverse
+8 (25%)
+Not Evaluable
+3 (9.4%)
+Molecular mutational panel at the initial diagnosis
+FLT3-ITD
+10 (31.3%)
+ASXL1
+4 (12.5%)
+IDH1/2
+6 (18.8%)
+NPM1
+6 (18.8%)
+Prior lines of therapy, median (range)
+1 (1-8)
+Prior lines of therapy
+1
+20 (62.5%)
+≥2
+12 (37.5%)
+Prior therapy with venetoclax
+5 (15.6%)
+Keywords:
+ Venetoclax, Salvage therapy, Acute myeloid leukemia, relapsed/refractory</t>
+  </si>
+  <si>
+    <t>https://library.ehaweb.org/eha/2023/eha2023-congress/386336/zhao.xingli.salvage.therapy.with.venetoclax.in.combination.with.azacitidine.html</t>
+  </si>
+  <si>
+    <t>pubmed</t>
+  </si>
+  <si>
+    <t>Journal Article | Research Support, Non-U.S. Gov't</t>
+  </si>
+  <si>
+    <t>Case Reports</t>
+  </si>
+  <si>
+    <t>08-2020</t>
+  </si>
+  <si>
+    <t>Aug-2020</t>
+  </si>
+  <si>
+    <t>09-2020</t>
+  </si>
+  <si>
+    <t>32896301</t>
+  </si>
+  <si>
+    <t>10.1016/S2352-3026(20)30210-6</t>
+  </si>
+  <si>
+    <t>10-day decitabine with venetoclax for newly diagnosed intensive chemotherapy ineligible, and relapsed or refractory acute myeloid leukaemia: a single-centre, phase 2 trial.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACKGROUND: Venetoclax combined with hypomethylating agents is a new standard of care for newly diagnosed patients with acute myeloid leukaemia (AML) who are 75 years or older, or unfit for intensive chemotherapy. Pharmacodynamic studies have suggested superiority of the longer 10-day regimen of decitabine that has shown promising results in patients with high-risk AML in phase 2 trials. We hypothesised that venetoclax with 10-day decitabine could have improved activity in patients with newly diagnosed AML and those with relapsed or refractory AML, particularly in high-risk subgroups.
+METHODS: This single centre, phase 2 trial was done at the University of Texas MD Anderson Cancer Center (Houston, TX, USA). The study enrolled older patients (aged &gt;60 years) with newly diagnosed AML, not eligible for intensive chemotherapy; secondary AML (progressed after myelodysplastic syndrome or chronic myelomonocytic leukaemia); and relapsed or refractory AML. Patients were required to have an Eastern Cooperative Oncology Group (ECOG) performance status of 3 or less, white blood cell count less than 10 × 10&lt;sup&gt;9&lt;/sup&gt; per L, and adequate end-organ function. Patients with favourable-risk cytogenetics (eg, t[15;17] or core-binding factor AML) or who had received previous BCL2-inhibitor therapy were excluded. Patients received decitabine 20 mg/m&lt;sup&gt;2&lt;/sup&gt; intravenously for 10 days with oral venetoclax 400 mg daily for induction, followed by decitabine for 5 days with daily venetoclax for consolidation. The primary endpoint was overall response rate. The secondary endpoints analysed within this report include safety, overall survival, and duration of response, in keeping with recommendations of European LeukemiaNet 2017 guidelines. All patients who received at least one dose of treatment were eligible for safety and response assessments. The trial was registered on ClinicalTrials.gov (NCT03404193) and continues to accrue patients.
+FINDINGS: Between Jan 19, 2018, and Dec 16, 2019, we enrolled 168 patients; 70 (42%) had newly diagnosed AML, 15 (9%) had untreated secondary AML, 28 (17%) had treated secondary AML, and 55 (33%) had relapsed or refractory AML. The median age was 71 years (IQR 65-76) and 30% of patients had ECOG performance status of 2 or higher. The median follow-up for all patients was 16 months (95% CI 12-18; actual follow-up 6·5 months; IQR 3·4-12·4). The overall response rate was 74% (125 of 168 patients; 95% CI 67-80) and in disease subgroups were: 89% in newly diagnosed AML (62 of 70 patients; 79-94), 80% in untreated secondary AML (12 of 15 patients; 55-93), 61% in treated secondary AML (17 of 28 patients; 42-76), and 62% in relapsed or refractory AML (34 of 55 patients; 49-74). The most common treatment-emergent adverse events included infections with grades 3 or 4 neutropenia (n=79, 47%) and febrile neutropenia (n=49, 29%). 139 (83%) of 168 patients had serious adverse events, most frequently neutropenic fever (n=63, 38%), followed by pneumonia (n=17, 10%) and sepsis (n=16, 10%). The 30-day mortality for all patients was 3·6% (n=6, 95% CI 1·7-7·8). The median overall survival was 18·1 months (95% CI 10·0-not reached) in newly diagnosed AML, 7·8 months (2·9-10·7) in untreated secondary AML, 6·0 months (3·4-13·7) in treated secondary AML, and 7·8 months (5·4-13·3) relapsed or refractory AML. The median duration of response was not reached (95% CI 9·0-not reached) in newly diagnosed AML, 5·1 months (95% CI 0·9-not reached) in untreated secondary AML, not reached (95% CI 2·5-not reached) in previously treated secondary AML, and 16·8 months (95% CI 6·6-not reached) in relapsed or refractory AML.
+INTERPRETATION: Venetoclax with 10-day decitabine has a manageable safety profile and showed high activity in newly diagnosed AML and molecularly defined subsets of relapsed or refractory AML. Future larger and randomised studies are needed to clarify activity in high-risk subsets.
+FUNDING: US National Institutes of Health and National Cancer Institute.
+</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/32896301/</t>
+  </si>
+  <si>
+    <t>https://europepmc.org/articles/pmc7549397?pdf=render</t>
+  </si>
+  <si>
+    <t>Clinical Trial, Phase II | Journal Article</t>
+  </si>
+  <si>
+    <t>32923230</t>
+  </si>
+  <si>
+    <t>10.7759/cureus.9629</t>
+  </si>
+  <si>
+    <t>Concurrent Diagnosis of Acute Myeloid Leukemia and COVID-19: A Management Challenge.</t>
+  </si>
+  <si>
+    <t>Khan, A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The emergence of coronavirus disease 2019 (COVID-19) has created new challenges in the management of serious diseases. We describe a 41-year-old male who presented with fever, watery diarrhea, and epistaxis. Initial workup revealed pancytopenia with &gt;50% blasts on the peripheral smear raising suspicion of acute myeloid leukemia (AML) (later confirmed by bone marrow biopsy as AML with myelodysplasia-related changes) and a positive polymerase chain reaction (PCR) for severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2). Given the extraordinary risk, he was treated with remdesivir and convalescent plasma for COVID-19. On admission day 8, repeat PCR for SARS-CoV-2 returned negative and the patient was deemed stable for chemotherapy. Therefore, induction was done with liposomal daunorubicin and cytarabine. However, he did not respond to the therapy and was started on re-induction therapy with decitabine and venetoclax. In our discussion, we review the current principles of treatment of patients with concurrent COVID-19 and AML.
+</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/32923230/</t>
+  </si>
+  <si>
+    <t>https://assets.cureus.com/uploads/case_report/pdf/37754/1612430882-1612430877-20210204-18268-zkuk15.pdf</t>
+  </si>
+  <si>
+    <t>32942828</t>
+  </si>
+  <si>
+    <t>10.3760/cma.j.issn.0253-2727.2020.08.016</t>
+  </si>
+  <si>
+    <t>[Venetoclax combined with azacitidine in the treatment of elderly patients with acute myeloid leukemia or myeloid sarcoma: Three cases reports and literature review].</t>
+  </si>
+  <si>
+    <t>Tian, F</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/32942828/</t>
+  </si>
+  <si>
+    <t>Case Reports | Journal Article | Review</t>
+  </si>
+  <si>
+    <t>32948748</t>
+  </si>
+  <si>
+    <t>10.1038/s41419-020-02972-2</t>
+  </si>
+  <si>
+    <t>Preclinical evaluation of a regimen combining chidamide and ABT-199 in acute myeloid leukemia.</t>
+  </si>
+  <si>
+    <t>Chen, K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acute myeloid leukemia (AML) is a heterogeneous myeloid neoplasm with poor clinical outcome, despite the great progress in treatment in recent years. The selective Bcl-2 inhibitor venetoclax (ABT-199) in combination therapy has been approved for the treatment of newly diagnosed AML patients who are ineligible for intensive chemotherapy, but resistance can be acquired through the upregulation of alternative antiapoptotic proteins. Here, we reported that a newly emerged histone deacetylase inhibitor, chidamide (CS055), at low-cytotoxicity dose enhanced the anti-AML activity of ABT-199, while sparing normal hematopoietic progenitor cells. Moreover, we also found that chidamide showed a superior resensitization effect than romidepsin in potentiation of ABT-199 lethality. Inhibition of multiple HDACs rather than some single component might be required. The combination therapy was also effective in primary AML blasts and stem/progenitor cells regardless of disease status and genetic aberrance, as well as in a patient-derived xenograft model carrying FLT3-ITD mutation. Mechanistically, CS055 promoted leukemia suppression through DNA double-strand break and altered unbalance of anti- and pro-apoptotic proteins (e.g., Mcl-1 and Bcl-xL downregulation, and Bim upregulation). Taken together, these results show the high therapeutic potential of ABT-199/CS055 combination in AML treatment, representing a potent and alternative salvage therapy for the treatment of relapsed and refractory patients with AML.
+</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/32948748/</t>
+  </si>
+  <si>
+    <t>https://www.nature.com/articles/s41419-020-02972-2.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">![https://ash.sliverchair-cdn.com]https://ash.silverchair-
 cdn.com/ash/content_public/journal/blood/138/supplement%201/10.1182_blood-2021-144400/1/m_inf01.gif?Expires=1700584771&amp;Signature=QdkQxaKFaRGq~eaTLOb0TTzxPvgawh07t3cyWNX7WxPX6thURK1t-1290Xjb750s8l1h6szYf5DJw3epMZu9HIfBvro~VhR8QhULxKG3LQfuvtm8TJcMoF1nxnAOzWrpXXDn5wT8Fn27UAuYSU55GOyHqncjqeRtClImBb7cQYhUzuRCOYzhxb3tclFw0xU8ZgWh0Aioq-3tbaXZrv-
 rnc1Xz9UEGI5BIUWAz8jxy7FjGRm0i~wQpBSFhFa7eP3cC133157OEBciWaPNxgbxGuv2XbtihIQ0wF~P2YEoglkEn6KQwxdHZfIyPWgiCw5yTWQWad~aOGB7HigzlFfv5g__&amp;Key-
 Pair-Id=APKAIE5G5CRDK6RD3PGA)
@@ -204,470 +662,11 @@
 or advisory committees.
 </t>
   </si>
-  <si>
-    <t>https://doi.org/10.1182/blood-2021-144400</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>Real-world study</t>
-  </si>
-  <si>
-    <t>E1a</t>
-  </si>
-  <si>
-    <t>2023-10-09 12:00:00</t>
-  </si>
-  <si>
-    <t>Phase 1</t>
-  </si>
-  <si>
-    <t>E6</t>
-  </si>
-  <si>
-    <t>Pre-clinical/Research article</t>
-  </si>
-  <si>
-    <t>E1</t>
-  </si>
-  <si>
-    <t>Phase 2</t>
-  </si>
-  <si>
-    <t>Case reports</t>
-  </si>
-  <si>
-    <t>I2</t>
-  </si>
-  <si>
-    <t>DiNardo, C</t>
-  </si>
-  <si>
-    <t>I3</t>
-  </si>
-  <si>
-    <t>Clinical study – unknown</t>
-  </si>
-  <si>
-    <t>Review</t>
-  </si>
-  <si>
-    <t>eha</t>
-  </si>
-  <si>
-    <t>Senapati J</t>
-  </si>
-  <si>
-    <t>06-2023</t>
-  </si>
-  <si>
-    <t>386317</t>
-  </si>
-  <si>
-    <t>SAFETY AND EFFICACY OF VENETOCLAX PLUS “7+3” CHEMOTHERAPY IN NEWLY DIAGNOSED AML</t>
-  </si>
-  <si>
-    <t>Mantzaris I</t>
-  </si>
-  <si>
-    <t>Abstract: P488
-Title: SAFETY AND EFFICACY OF VENETOCLAX PLUS “7+3” CHEMOTHERAPY IN
-NEWLY DIAGNOSED AML
-Abstract Type: Poster Presentation
-Session Title: Acute myeloid leukemia - Clinical
-Background:
-Approximately 70% of patients (pts) with acute myeloid leukemia (AML) treated with the “7+3” regimen achieve
-complete remission (CR), with 30-50% of those attaining measurable residual disease (MRD) negative state by
-multiparameter flow cytometry (MFC). However, despite initial responses, the majority of pts eventually relapse.
-Venetoclax (Ven) added to intensive chemotherapy (IC) facilitates apoptosis of leukemic stem cells (LSC), and may
-result in deeper, more durable remissions. Moreover, IC induces MCL-1 downregulation and may overcome Ven
-resistance. We present initial results from an ongoing phase 1b study evaluating the safety and tolerability of
-different Ven doses combined with daunorubicin (Dauno)+ cytarabine (AraC) followed by high-dose cytarabine
-(HiDAC) chemotherapy in pts with newly diagnosed AML (NCT05342584).
-Aims:
-The primary objective of this study is to determine the optimal dose of Ven in combination with Dauno &amp; AraC
-and HiDAC chemotherapy. Secondary objectives are response per 2022 ELN, survival (OS), event-free survival
-(EFS) and duration of response (DoR). A key exploratory objective is to assess rates of LSC eradication by means of
-MFC and single cell DNA (Tapestri, Mission Bio) and RNA sequencing (“high-resolution MRD assay”).
-Methods:
-Eligible pts must have a new diagnosis of AML, be 18-75 yrs of age and deemed fit for intensive chemotherapy. In
-a 3+3 design, escalating total Ven doses (400 mg D1-8 or 11 or 14, including 2-day ramp-up) are combined with
-AraC 100mg/m2 (D2-8) and 2 doses of Dauno (60 and 90mg/m2, D2-4) in pts &lt; 60yrs or Dauno 60mg/m2 (D2-
-4) alone in pts ≥60yrs. Overflow of additional 3 pts is allowed in lower-dose cohorts. During consolidation, Ven
-dose is escalated (200 -&gt; 400mg x7days) in a similar 3+3 design in combination with age-adjusted HiDAC
-(1.5g/m2 in &lt;60yrs and 1g/m2 in ≥60yrs, every 12hrs on days 1,3,5). In the expansion phase, additional 12 pts in
-each age group (&lt;60 and ≥60yrs) will be treated at the dose determined during dose escalation. Dose-limiting
-toxicity (DLT) is defined as any ≥grade 3 non-heme toxicity not attributed to chemotherapy alone and/or failure to
-achieve ANC ≥ 500/mL and/or PLT≥ 50,000/mL by day 42 in pts without residual AML. A marrow exam, including
-an assessment of MRD by MFC with a sensitivity of 0.02%, is performed at the time of count recovery or by day
-42.
-Results:
-Seventeen AML pts enrolled and 14 completed the induction phase to date, 3 are actively treated. Forty-one
-percent are females and 52% ethnic minorities. Six pts &lt;60yrs of age were treated with Ven x 8d, 3 in Dauno60
-and 3 in Dauno90 cohorts. From the 8 pts ≥60yo, 5 were treated with Ven x 8d and 3 with Ven x 11d plus
-Dauno60. No DLTs were observed. All except one pt (13/14, 93%) achieved a complete remission (CR) with single
-induction. Median time to ANC≥0.5K/uL and PLT≥50K/uL was 26 and 28 days, respectively. Of those in CR, all
-except one pt were MFC-MRD negative (12/14, 86%). Among 6/8 patients with available MRD PCR testing, 4
-achieved molecular MRD-negative and 2 low-level molecular MRD CRs. With a median time on follow-up of 4.7
-months, 11 of 14 (78.6%) patients are alive with no evidence of relapse. Table 1 summarizes patient
-characteristics, toxicity and outcomes.
-Summary/Conclusion:
-Ven 400mg in combination with "7+3" induction chemotherapy appears safe and highly effective in achievingdeep remissions. Enrollment continues in the Dauno60 + Ven x11d and 14d cohorts. Updated results, as well as
-data on EFS, OS, DoR and rates of LSC elimination post-induction will be presented at the meeting.
-Keywords:
- Acute myeloid leukemia, AML</t>
-  </si>
-  <si>
-    <t>https://library.ehaweb.org/eha/2023/eha2023-congress/386317/ioannis.mantzaris.safety.and.efficacy.of.venetoclax.plus.72B3.chemotherapy.in.html</t>
-  </si>
-  <si>
-    <t>386329</t>
-  </si>
-  <si>
-    <t>SUPERIOR OUTCOMES AFTER ALLOGENEIC STEM CELL TRANSPLANTATION AMONG PATIENTS ≥ 60 YEARS TREATED WITH CLADRIBINE, LOW DOSE CYTARABINE PLUS VENETOCLAX FOR NEWLY DIAGNOSED ACUTE MYELOID LEUKEMIA</t>
-  </si>
-  <si>
-    <t>Abstract: P500
-Title: SUPERIOR OUTCOMES AFTER ALLOGENEIC STEM CELL TRANSPLANTATION
-AMONG PATIENTS ≥ 60 YEARS TREATED WITH CLADRIBINE, LOW DOSE
-CYTARABINE PLUS VENETOCLAX FOR NEWLY DIAGNOSED ACUTE MYELOID
-LEUKEMIA
-Abstract Type: Poster Presentation
-Session Title: Acute myeloid leukemia - Clinical
-Background:
-A low intensity regimen consisting of Cladribine (CLAD), Low dose cytarabine (LDAC) and Venetoclax (VEN)
-alternating with Azacitidine (AZA) and VEN has shown promising outcomes in older patients (pts) with acute
-myeloid leukemia (AML) (
-Kadia et al
-, JCO Nov 2022). Improved disease control and preserved performance status
-achieved with CLAD/LDAC/VEN treatment, may translate into superior post-stem cell transplantation (SCT)
-outcomes.
-Aims:
-We aimed to study the outcomes of older pts with AML who underwent SCT post CLAD-LDAC-VEN therapy and
-compare to those who underwent SCT after hypomethylating agent (HMA)-VEN based or intensive (INT) therapy.
-Methods:
-Pts ≥ 60 yrs of age treated on the phase II study of CLAD-LDAC-VEN (NCT03586609) who underwent SCT in 1st
-remission (CR1) were compared to a retrospective cohort of pts ≥ 60 yrs treated with HMA-VEN based or INT
-therapy who underwent SCT in CR1 between 2013-2022. Relapse free survival (RFS) was from response to
-relapse/death and overall survival (OS) from start of therapy to death. We performed competing event analysis to
-study the cumulative incidence of relapse (CIR) and non-relapse mortality (NRM) for the patients on these 3
-treatment arms.
-Results:
-35 pts treated with CLAD-LDAC-VEN were compared to 40 pts treated with HMA-VEN &amp; 42 pts with INT therapy
-for remission induction prior to SCT at our center (Figure 1). The median age of pts in the low-intensity arms were
-similar (68 yrs), but lower on the INT arm (62 yrs). More pts post-INT therapy received a myeloablative
-conditioning (MAC). At a median follow up of 17+ mos for CLAD-LDAC-VEN arm, 30 mos for HMA arm, and 59
-mos for INT arm the median RFS (NR vs. 20 mos vs. 50 mos respectively, p &lt;0.01) and OS (NR vs. 32 m vs. 58 m
-respectively, p &lt; 0.01) was superior for the CLAD-LDAC-VEN arm. 3-yr cumulative incidence of relapse &amp; NRM (as
-competing events) were both significantly lower with CLAD-LDAC-VEN (4% and 7%) compared to HMA-VEN (41%
-and 27%) or INT therapy (17% and 23%) (Figure 1). The rates of any-grade acute graft versus host disease (GVHD)
-was slightly lower in the CLAD-LDAC-VEN arm (34%) compared to HMA (54%) and INT arms (67%); 31/35 pts
-(88%) in the CLAD-LDAC-VEN arm had received post-transplant cyclophosphamide GVHD prophylaxis compared
-to 35/40 (87%) pts in HMA arm (p- 0.99) and 25/42 (60%) pts in the INT arm (p- 0.005).
-Summary/Conclusion:
-Older pts with AML proceeding to SCT after CLAD-LDAC-VEN therapy had significantly improved survival,
-characterized by significantly lower rates of NRM and relapse compared to HMA-VEN or INT therapies. Larger
-studies and longer follow up is needed to further confirm its benefit.Keywords:
- Cladribine, Acute myeloid leukemia, Venetoclax, Allogeneic hematopoietic stem cell transplant</t>
-  </si>
-  <si>
-    <t>https://library.ehaweb.org/eha/2023/eha2023-congress/386329/jayastu.senapati.superior.outcomes.after.allogeneic.stem.cell.transplantation.html</t>
-  </si>
-  <si>
-    <t>386331</t>
-  </si>
-  <si>
-    <t>PHASE II STUDY ON VENETOCLAX PLUS DECITABINE FOR ELDERLY (≥60 &lt;75YEARS) PATIENTS WITH NEWLY DIAGNOSED HIGH-INTERMEDIATE RISK AML ELEGIBLE FOR ALLO-SCT : MIDTERM UPDATE OF VEN-DEC GITMO STUDY</t>
-  </si>
-  <si>
-    <t>Russo D</t>
-  </si>
-  <si>
-    <t>Abstract: P502
-Title: PHASE II STUDY ON VENETOCLAX PLUS DECITABINE FOR ELDERLY (≥60
-&lt;75YEARS) PATIENTS WITH NEWLY DIAGNOSED HIGH-INTERMEDIATE RISK AML
-ELEGIBLE FOR ALLO-SCT : MIDTERM UPDATE OF VEN-DEC GITMO STUDY
-Abstract Type: Poster Presentation
-Session Title: Acute myeloid leukemia - Clinical
-Background:
-Allogeneic stem cell transplantation (allo-SCT) represents the preferred consolidation treatment for patients
-affected by intermediate/high risk ELN acute myeloid leukemia. Unfortunately, due comorbidities and unfitness to
-intensive chemotherapy only a minority of elderly patients (aged ≥60) may benefit of such a curative approach.
-Aims:
-VEN-DEC GITMO trial is a no profit, prospective, phase II, multicentre, non-randomised, uncontrolled, single group
-assignment, open label study to evaluate the safety and efficacy of the “chemo-free” combination Venetoclax plus
-Decitabine (VEN-DEC) as “bridge” to allo-SCT in elderly (≥ 60 - &lt; 75 years) AML patients.
-Methods:
-Venetoclax and Decitabine were administered for 2 cycles and then response was evaluated. In case of
-CR/CRi/MLFS (hereinafter defined as CR) according to ELN criteria, patients had to undergo allo-SCT within 2
-months. In case of NR or PR after the 2nd Cycle VEN-DEC, 2 additional cycles had to be administered and patients
-achieving CR had to undergo allo-SCT within 2 months. Patients with NR or PR went off the study and could be
-treated according to single center policy.
-The study was designed as a Simon optimal two-Stage Phase II clinical trial, including a planned futility check.
-Considering an overall 12% of drop-out rate, a total of 100 patients had to be enrolled. Primary objective is the
-proportion of elderly AML patients who receive allo-SCT in CR with the “chemo-free” combination VEN-DEC.
-According to the statistical plan, primary endpoint was met in case of more than 15% of patients in CR submitted
-to allo-SCT. Figure 1 illustrates the study design.
-Results:
-The study started at July 2021 and, as expected, 100 patients were enrolled at December 2022 by 25 Italian Gitmo
-Transplant Centers. Data cut-off is February 18
-th
-, 2023.
-Screening failure was registered in 6 pts (6%), all the remaining 94 pts started the 1
-st
- cycle of treatment, 75 pts
-completed the 2
-nd
- cycle of VEN-DEC and were evaluable for treatment response.
-Overall, CR was recorded in 49 patients after 2 cycles (65.3%), partial or non-response in 26 cases. Four out of 26
-(15%) PR/NR patients obtained a CR after 2 additional cycles of therapy. A total of 37 and 12 patients received a
-third and/or a fourth cycle of treatment after reaching a CR after cycle 2 while waiting for transplant, due to
-logistical issues. According to study protocol, first cycle was administered inpatient in all patients. Cycle 2 was
-given outpatient in 74% of cases. Median time to response was 67 days (range, 49-175). A total of 8/94 (9%)
-patients have died before transplant (in 3 cases for disease progression).
-At data cut-off, 41/94 (43.6%) patients have been successfully undergone allo-SCT and 12 patients are awaiting
-for transplant.
-Summary/Conclusion:
-Even if the study is still ongoing, the primary endpoint has already been met. Final analysis is planned at end ofMay 2023 before EHA meeting. In that report, comprehensive evaluation of efficacy and toxicity will be reported.
-Acknowledgement
-Monica Bonzi, Sr. Clinical Lead - IQVIA RDS, Italy.
-Keywords:
- Venetoclax, Acute leukemia, Induction chemotherapy, decitabine</t>
-  </si>
-  <si>
-    <t>https://library.ehaweb.org/eha/2023/eha2023-congress/386331/domenico.russo.phase.ii.study.on.venetoclax.plus.decitabine.for.elderly.2860.html</t>
-  </si>
-  <si>
-    <t>386336</t>
-  </si>
-  <si>
-    <t>SALVAGE THERAPY WITH VENETOCLAX IN COMBINATION WITH AZACITIDINE, HOMOHARRINGTONINE AND CYTARABINE IN PATIENTS WITH RELAPSED/REFRACTORY ACUTE MYELOID LEUKEMIA</t>
-  </si>
-  <si>
-    <t>Xingli Z</t>
-  </si>
-  <si>
-    <t>Abstract: P507
-Title: SALVAGE THERAPY WITH VENETOCLAX IN COMBINATION WITH
-AZACITIDINE, HOMOHARRINGTONINE AND CYTARABINE IN PATIENTS WITH
-RELAPSED/REFRACTORY ACUTE MYELOID LEUKEMIA
-Abstract Type: Poster Presentation
-Session Title: Acute myeloid leukemia - Clinical
-Background:
-In recent years, the efficacy of acute myeloid leukemia (AML) has been improved, but the outcome of
-relapsed/refractory (R/R) AML patients is still poor. Traditional chemotherapy is not effective for these patients
-with 
-complete remission
-(CR) 40-60%. Previous reports have shown that the combined application of some small-
-molecule targeted drugs (gilteritinib, enasidenib, ivosidenib, venetoclax, etc) could improve the therapeutic effect.
-Venetoclax (Ven), an oral Bcl-2 inhibitor, combined with azacitidine (AZA), decitabine and cytarabine (Ara-c) are
-effective in the treatment of newly diagnosed AML patients who are not eligible for intense chemotherapy, and the
-above regimen has also achieved good efficacy in the R/R AML with overall response rate (ORR) 21% to 75% and
-a median overall survival (OS) of 3-7.8 month.
-Previous research has shown that Homoharringtonine (HHT) and Ven can play a synergistic role in promoting
-tumor cell apoptosis through various pathways, and effectively cover the Ven resistance pathway. So that, Ven
-combined with AZA, HHT and Ara-c may improve the response rate in patients with R/R AML.
-Aims:
-Herein, we reported the data of 32 patients with R/R AML who were administered Ven+AZA+HHT+Ara-c as
-salvage therapy. The purpose of this study was to evaluate the efficacy and safety of this salvage regimen.
-Methods:
-Between Oct 2020 and Jan 2023, 32 patients with R/R AML were treated with this salvage regimen at 5 hospitals
-in China.
-The salvage therapy involved Ven (200mg/d, days 1-11, with dose adjustment in patients who also received azole
-antifungals), AZA (100 mg/d, days 2-8), HHT (2mg/m2/d, days 3-7) and Ara-c (100mg/d, days 3-9). Patients with
-FLT3-ITD mutations, allowing added sorafenib 600mg-800mg on days 4-10. The primary objective was ORR
-(including complete response (CR) + complete response without haematological recovery (CRi) + partial response
-(PR)), Secondary objectives were bone marrow minimal residual disease (MRD) by flow cytometry after one cycle
-of salvage treatment, OS and safety.
-Results:
-32 patients were enrolled from Oct 2020 to Jan 2023. 62.5% 
-（
-20/32
-）
- patients were men. The median age was
-50
-（
-24-65
-）
-years old. Median number of prior lines of therapy was 1 (1-8), 5 patients (15.6%) who had undergone
-prior therapy with venetoclax.
-The ORR after one cycle salvage treatment was 68.8% with composite complete response rate (CR+CRi) 65.7%.
-63.2% (12/19) patients who reached CR/CRi with undetectable MRD by flow cytometry. The ORR of patients who
-had previously received Ven was 80% (4/5). Untill Feb 2023, the estimated 1-years OS was 57.8%.
-Grade 3 or 4 anaemia, neutropenia and thrombocytopenia were the most common haematological adverse events
-during the salvage treatment and were presented in all enrolled patients. The most common non-hematologic
-adverse events were febrile neutropenia. 1 patient died during the therapy. Conclusion:
-Ven combined with AZA, HHT and Ara-c is a highly effective and safe salvage therapy for patients with R/R AML.
-Table 1. Patients Demographic and Baseline Characteristics, N=32
-Characteristic
-No. of Patients (%)
-or Median [Range]
-Gender
-Male
-20 (62.5%)
-Female
-12 (37.5%)
-Median age, years (range)
-50 (24-65)
-ECOG performance status
-0-1
-27 (84.4%)
-≥2
-5 (15.6%)
-ELN 2022 risk group at the initial diagnosis
-Favorable
-5 (15.6%)
-Intermediate
-14 (43.7%)
-Adverse
-10 (31.3%)
-Not Evaluable
-3 (9.4%)
-ELN 2017 risk group at the initial diagnosis
-Favorable
-6 (18.8%)
-Intermediate
-15 (46.9%)
-Adverse
-8 (25%)
-Not Evaluable
-3 (9.4%)
-Molecular mutational panel at the initial diagnosis
-FLT3-ITD
-10 (31.3%)
-ASXL1
-4 (12.5%)
-IDH1/2
-6 (18.8%)
-NPM1
-6 (18.8%)
-Prior lines of therapy, median (range)
-1 (1-8)
-Prior lines of therapy
-1
-20 (62.5%)
-≥2
-12 (37.5%)
-Prior therapy with venetoclax
-5 (15.6%)
-Keywords:
- Venetoclax, Salvage therapy, Acute myeloid leukemia, relapsed/refractory</t>
-  </si>
-  <si>
-    <t>https://library.ehaweb.org/eha/2023/eha2023-congress/386336/zhao.xingli.salvage.therapy.with.venetoclax.in.combination.with.azacitidine.html</t>
-  </si>
-  <si>
-    <t>pubmed</t>
-  </si>
-  <si>
-    <t>Journal Article | Research Support, Non-U.S. Gov't</t>
-  </si>
-  <si>
-    <t>Case Reports</t>
-  </si>
-  <si>
-    <t>08-2020</t>
-  </si>
-  <si>
-    <t>Aug-2020</t>
-  </si>
-  <si>
-    <t>09-2020</t>
-  </si>
-  <si>
-    <t>32896301</t>
-  </si>
-  <si>
-    <t>10.1016/S2352-3026(20)30210-6</t>
-  </si>
-  <si>
-    <t>10-day decitabine with venetoclax for newly diagnosed intensive chemotherapy ineligible, and relapsed or refractory acute myeloid leukaemia: a single-centre, phase 2 trial.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACKGROUND: Venetoclax combined with hypomethylating agents is a new standard of care for newly diagnosed patients with acute myeloid leukaemia (AML) who are 75 years or older, or unfit for intensive chemotherapy. Pharmacodynamic studies have suggested superiority of the longer 10-day regimen of decitabine that has shown promising results in patients with high-risk AML in phase 2 trials. We hypothesised that venetoclax with 10-day decitabine could have improved activity in patients with newly diagnosed AML and those with relapsed or refractory AML, particularly in high-risk subgroups.
-METHODS: This single centre, phase 2 trial was done at the University of Texas MD Anderson Cancer Center (Houston, TX, USA). The study enrolled older patients (aged &gt;60 years) with newly diagnosed AML, not eligible for intensive chemotherapy; secondary AML (progressed after myelodysplastic syndrome or chronic myelomonocytic leukaemia); and relapsed or refractory AML. Patients were required to have an Eastern Cooperative Oncology Group (ECOG) performance status of 3 or less, white blood cell count less than 10 × 10&lt;sup&gt;9&lt;/sup&gt; per L, and adequate end-organ function. Patients with favourable-risk cytogenetics (eg, t[15;17] or core-binding factor AML) or who had received previous BCL2-inhibitor therapy were excluded. Patients received decitabine 20 mg/m&lt;sup&gt;2&lt;/sup&gt; intravenously for 10 days with oral venetoclax 400 mg daily for induction, followed by decitabine for 5 days with daily venetoclax for consolidation. The primary endpoint was overall response rate. The secondary endpoints analysed within this report include safety, overall survival, and duration of response, in keeping with recommendations of European LeukemiaNet 2017 guidelines. All patients who received at least one dose of treatment were eligible for safety and response assessments. The trial was registered on ClinicalTrials.gov (NCT03404193) and continues to accrue patients.
-FINDINGS: Between Jan 19, 2018, and Dec 16, 2019, we enrolled 168 patients; 70 (42%) had newly diagnosed AML, 15 (9%) had untreated secondary AML, 28 (17%) had treated secondary AML, and 55 (33%) had relapsed or refractory AML. The median age was 71 years (IQR 65-76) and 30% of patients had ECOG performance status of 2 or higher. The median follow-up for all patients was 16 months (95% CI 12-18; actual follow-up 6·5 months; IQR 3·4-12·4). The overall response rate was 74% (125 of 168 patients; 95% CI 67-80) and in disease subgroups were: 89% in newly diagnosed AML (62 of 70 patients; 79-94), 80% in untreated secondary AML (12 of 15 patients; 55-93), 61% in treated secondary AML (17 of 28 patients; 42-76), and 62% in relapsed or refractory AML (34 of 55 patients; 49-74). The most common treatment-emergent adverse events included infections with grades 3 or 4 neutropenia (n=79, 47%) and febrile neutropenia (n=49, 29%). 139 (83%) of 168 patients had serious adverse events, most frequently neutropenic fever (n=63, 38%), followed by pneumonia (n=17, 10%) and sepsis (n=16, 10%). The 30-day mortality for all patients was 3·6% (n=6, 95% CI 1·7-7·8). The median overall survival was 18·1 months (95% CI 10·0-not reached) in newly diagnosed AML, 7·8 months (2·9-10·7) in untreated secondary AML, 6·0 months (3·4-13·7) in treated secondary AML, and 7·8 months (5·4-13·3) relapsed or refractory AML. The median duration of response was not reached (95% CI 9·0-not reached) in newly diagnosed AML, 5·1 months (95% CI 0·9-not reached) in untreated secondary AML, not reached (95% CI 2·5-not reached) in previously treated secondary AML, and 16·8 months (95% CI 6·6-not reached) in relapsed or refractory AML.
-INTERPRETATION: Venetoclax with 10-day decitabine has a manageable safety profile and showed high activity in newly diagnosed AML and molecularly defined subsets of relapsed or refractory AML. Future larger and randomised studies are needed to clarify activity in high-risk subsets.
-FUNDING: US National Institutes of Health and National Cancer Institute.
-</t>
-  </si>
-  <si>
-    <t>https://pubmed.ncbi.nlm.nih.gov/32896301/</t>
-  </si>
-  <si>
-    <t>https://europepmc.org/articles/pmc7549397?pdf=render</t>
-  </si>
-  <si>
-    <t>Clinical Trial, Phase II | Journal Article</t>
-  </si>
-  <si>
-    <t>32923230</t>
-  </si>
-  <si>
-    <t>10.7759/cureus.9629</t>
-  </si>
-  <si>
-    <t>Concurrent Diagnosis of Acute Myeloid Leukemia and COVID-19: A Management Challenge.</t>
-  </si>
-  <si>
-    <t>Khan, A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The emergence of coronavirus disease 2019 (COVID-19) has created new challenges in the management of serious diseases. We describe a 41-year-old male who presented with fever, watery diarrhea, and epistaxis. Initial workup revealed pancytopenia with &gt;50% blasts on the peripheral smear raising suspicion of acute myeloid leukemia (AML) (later confirmed by bone marrow biopsy as AML with myelodysplasia-related changes) and a positive polymerase chain reaction (PCR) for severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2). Given the extraordinary risk, he was treated with remdesivir and convalescent plasma for COVID-19. On admission day 8, repeat PCR for SARS-CoV-2 returned negative and the patient was deemed stable for chemotherapy. Therefore, induction was done with liposomal daunorubicin and cytarabine. However, he did not respond to the therapy and was started on re-induction therapy with decitabine and venetoclax. In our discussion, we review the current principles of treatment of patients with concurrent COVID-19 and AML.
-</t>
-  </si>
-  <si>
-    <t>https://pubmed.ncbi.nlm.nih.gov/32923230/</t>
-  </si>
-  <si>
-    <t>https://assets.cureus.com/uploads/case_report/pdf/37754/1612430882-1612430877-20210204-18268-zkuk15.pdf</t>
-  </si>
-  <si>
-    <t>32942828</t>
-  </si>
-  <si>
-    <t>10.3760/cma.j.issn.0253-2727.2020.08.016</t>
-  </si>
-  <si>
-    <t>[Venetoclax combined with azacitidine in the treatment of elderly patients with acute myeloid leukemia or myeloid sarcoma: Three cases reports and literature review].</t>
-  </si>
-  <si>
-    <t>Tian, F</t>
-  </si>
-  <si>
-    <t>https://pubmed.ncbi.nlm.nih.gov/32942828/</t>
-  </si>
-  <si>
-    <t>Case Reports | Journal Article | Review</t>
-  </si>
-  <si>
-    <t>32948748</t>
-  </si>
-  <si>
-    <t>10.1038/s41419-020-02972-2</t>
-  </si>
-  <si>
-    <t>Preclinical evaluation of a regimen combining chidamide and ABT-199 in acute myeloid leukemia.</t>
-  </si>
-  <si>
-    <t>Chen, K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acute myeloid leukemia (AML) is a heterogeneous myeloid neoplasm with poor clinical outcome, despite the great progress in treatment in recent years. The selective Bcl-2 inhibitor venetoclax (ABT-199) in combination therapy has been approved for the treatment of newly diagnosed AML patients who are ineligible for intensive chemotherapy, but resistance can be acquired through the upregulation of alternative antiapoptotic proteins. Here, we reported that a newly emerged histone deacetylase inhibitor, chidamide (CS055), at low-cytotoxicity dose enhanced the anti-AML activity of ABT-199, while sparing normal hematopoietic progenitor cells. Moreover, we also found that chidamide showed a superior resensitization effect than romidepsin in potentiation of ABT-199 lethality. Inhibition of multiple HDACs rather than some single component might be required. The combination therapy was also effective in primary AML blasts and stem/progenitor cells regardless of disease status and genetic aberrance, as well as in a patient-derived xenograft model carrying FLT3-ITD mutation. Mechanistically, CS055 promoted leukemia suppression through DNA double-strand break and altered unbalance of anti- and pro-apoptotic proteins (e.g., Mcl-1 and Bcl-xL downregulation, and Bim upregulation). Taken together, these results show the high therapeutic potential of ABT-199/CS055 combination in AML treatment, representing a potent and alternative salvage therapy for the treatment of relapsed and refractory patients with AML.
-</t>
-  </si>
-  <si>
-    <t>https://pubmed.ncbi.nlm.nih.gov/32948748/</t>
-  </si>
-  <si>
-    <t>https://www.nature.com/articles/s41419-020-02972-2.pdf</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -724,13 +723,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1033,24 +1035,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="7" max="7" width="27.44140625" customWidth="1"/>
+    <col min="7" max="7" width="47.5703125" customWidth="1"/>
     <col min="8" max="8" width="43" customWidth="1"/>
-    <col min="9" max="9" width="99.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.44140625" customWidth="1"/>
-    <col min="11" max="11" width="33.21875" customWidth="1"/>
-    <col min="12" max="12" width="29.6640625" customWidth="1"/>
+    <col min="9" max="9" width="99.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" customWidth="1"/>
+    <col min="11" max="11" width="33.28515625" customWidth="1"/>
+    <col min="12" max="12" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1091,7 +1095,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1110,333 +1114,318 @@
       <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>19</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>21</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>22</v>
       </c>
-      <c r="M2" t="s">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" t="s">
         <v>23</v>
       </c>
+      <c r="L3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" t="s">
         <v>35</v>
       </c>
-      <c r="B3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="G4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" t="s">
         <v>24</v>
       </c>
-      <c r="L3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" t="s">
-        <v>23</v>
+      <c r="M6" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8" t="s">
         <v>28</v>
       </c>
-      <c r="L4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" t="s">
-        <v>23</v>
+      <c r="L8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" t="s">
-        <v>51</v>
-      </c>
-      <c r="K5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5" t="s">
-        <v>23</v>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" t="s">
+        <v>79</v>
+      </c>
+      <c r="H9" t="s">
+        <v>80</v>
+      </c>
+      <c r="J9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H6" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>56</v>
       </c>
-      <c r="K6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="B10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" t="s">
+        <v>86</v>
+      </c>
+      <c r="H10" t="s">
+        <v>87</v>
+      </c>
+      <c r="I10" t="s">
+        <v>88</v>
+      </c>
+      <c r="J10" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" t="s">
         <v>25</v>
       </c>
-      <c r="M6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H7" t="s">
-        <v>67</v>
-      </c>
-      <c r="I7" t="s">
-        <v>68</v>
-      </c>
-      <c r="J7" t="s">
-        <v>69</v>
-      </c>
-      <c r="K7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G8" t="s">
-        <v>74</v>
-      </c>
-      <c r="H8" t="s">
-        <v>75</v>
-      </c>
-      <c r="I8" t="s">
-        <v>76</v>
-      </c>
-      <c r="J8" t="s">
-        <v>59</v>
-      </c>
-      <c r="K8" t="s">
-        <v>29</v>
-      </c>
-      <c r="L8" t="s">
-        <v>27</v>
-      </c>
-      <c r="M8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" t="s">
-        <v>80</v>
-      </c>
-      <c r="H9" t="s">
-        <v>81</v>
-      </c>
-      <c r="J9" t="s">
-        <v>82</v>
-      </c>
-      <c r="K9" t="s">
-        <v>34</v>
-      </c>
-      <c r="L9" t="s">
-        <v>27</v>
-      </c>
-      <c r="M9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" t="s">
-        <v>85</v>
-      </c>
-      <c r="E10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" t="s">
-        <v>86</v>
-      </c>
-      <c r="G10" t="s">
-        <v>87</v>
-      </c>
-      <c r="H10" t="s">
-        <v>88</v>
-      </c>
-      <c r="I10" t="s">
-        <v>89</v>
-      </c>
-      <c r="J10" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>26</v>
       </c>
-      <c r="L10" t="s">
-        <v>27</v>
-      </c>
       <c r="M10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M10" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:M10"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005DCD4BBEF98AD847B98FEFA8408AE22A" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="981a62cd40ae7df37db4a727a6f088b6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f52af23a-6254-417c-81fe-fe0e7d47f8e7" xmlns:ns3="a90f93bf-8c41-4113-a0d2-2ad64c67d0ed" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e635217de83b30cc64e9a8c6803540a7" ns2:_="" ns3:_="">
     <xsd:import namespace="f52af23a-6254-417c-81fe-fe0e7d47f8e7"/>
@@ -1613,10 +1602,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D43BDD6-7C57-4192-9393-A828EDC8C3B9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98161F3E-64A1-4CB4-B406-3A3D347243F9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f52af23a-6254-417c-81fe-fe0e7d47f8e7"/>
+    <ds:schemaRef ds:uri="a90f93bf-8c41-4113-a0d2-2ad64c67d0ed"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1631,5 +1646,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98161F3E-64A1-4CB4-B406-3A3D347243F9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D43BDD6-7C57-4192-9393-A828EDC8C3B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>